--- a/diary/2017-2-21(H).xlsx
+++ b/diary/2017-2-21(H).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thumbd12856\Desktop\Daily-Eating\diary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="11835" windowHeight="5370"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>P</t>
   </si>
@@ -39,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>雞胸肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>白飯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +61,22 @@
   </si>
   <si>
     <t>蘋果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉 400g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雞胸肉 400g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健身項目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -67,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +99,21 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -106,12 +138,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -122,6 +163,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -170,7 +214,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,7 +249,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,26 +458,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -446,8 +500,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -461,7 +518,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -475,37 +532,37 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6.82</v>
@@ -517,9 +574,9 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6.82</v>
@@ -531,9 +588,9 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -545,31 +602,31 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
         <f>SUM(B2:B11)</f>
-        <v>211.83999999999997</v>
+        <v>257.83999999999997</v>
       </c>
       <c r="C16">
         <f>SUM(C2:C11)</f>
@@ -577,12 +634,13 @@
       </c>
       <c r="D16">
         <f>SUM(D2:D9)</f>
-        <v>38.5</v>
+        <v>39.9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
